--- a/biology/Médecine/Liquide_lacrymal/Liquide_lacrymal.xlsx
+++ b/biology/Médecine/Liquide_lacrymal/Liquide_lacrymal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liquide lacrymal est un liquide physiologique aqueux et salé qui s'écoule à la surface externe de la cornée et de la conjonctive de l'œil. Lorsque l'écoulement se fait en dehors de l'œil, il forme des larmes.
 </t>
@@ -511,7 +523,9 @@
           <t>Production et écoulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est produit en permanence par les glandes lacrymales et se répand de façon uniforme à la surface antérieure de l'œil.
 En temps normal, il s'écoule par le canal lacrymal jusqu'aux fosses nasales où il est éliminé dans l'air sous forme de gouttelettes microscopiques durant le processus de respiration.
@@ -544,7 +558,9 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le liquide lacrymal humidifie et protège la cornée.
 Les rôles du liquide lacrymal sont prépondérants pour le bon fonctionnement de l'appareil visuel :
@@ -586,7 +602,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liquide lacrymal est produit par filtration du sang par des cellules excrétrices des glandes lacrymales, cependant certains constituants de ce liquide (comme le lysozyme) ne sont pas présents dans le sang et sont synthétisés directement par ces glandes.
 La composition de ce liquide varie légèrement en fonction des couches de ce dernier :
@@ -623,7 +641,9 @@
           <t>Pathologies associées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dacryocystite : infection des glandes lacrymales
 Syndrome de Gougerot-Sjögren
